--- a/weather.xlsx
+++ b/weather.xlsx
@@ -1,50 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITE-425\AI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Parls</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -56,83 +82,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -141,10 +100,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -274,6 +233,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -297,10 +257,11 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -309,13 +270,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -391,6 +352,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -410,109 +372,81 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.57031" customWidth="1"/>
+    <col min="2" max="2" width="13.42578" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bangkok</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Parls</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Helsinki</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>21</v>
       </c>
     </row>
